--- a/TrueTestRun/App_Data/Requests/EPE-EE-25-030/request.xlsx
+++ b/TrueTestRun/App_Data/Requests/EPE-EE-25-030/request.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>EPE-EE Ver2</t>
   </si>
@@ -318,9 +318,6 @@
 発行日</t>
   </si>
   <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Model SX
 生産モデル</t>
   </si>
@@ -339,21 +336,12 @@
 部品コード</t>
   </si>
   <si>
-    <t>M9292020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên linh kiện
 部品名</t>
   </si>
   <si>
-    <t>KO009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhà cung cấp
 業者名</t>
-  </si>
-  <si>
-    <t>Brother</t>
   </si>
   <si>
     <t xml:space="preserve">Thay đổi thiết kế: DCI WP202502840 thay đổi nhà máy sản xuất Transformer
@@ -369,9 +357,6 @@
   <si>
     <t xml:space="preserve">Số lượng
 数量</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">Thay đổi công đoạn: thay đổi địa điểm sản xuất
@@ -561,9 +546,6 @@
     <t>　PC</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t xml:space="preserve">Đã xác nhận FA sample
 </t>
@@ -596,9 +578,6 @@
   </si>
   <si>
     <t>Signature</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>　MC</t>
@@ -15952,16 +15931,14 @@
       <c r="B8" s="259"/>
       <c r="C8" s="259"/>
       <c r="D8" s="259"/>
-      <c r="E8" s="261" t="s">
-        <v>6</v>
-      </c>
+      <c r="E8" s="261"/>
       <c r="F8" s="262"/>
       <c r="G8" s="262"/>
       <c r="H8" s="262"/>
       <c r="I8" s="262"/>
       <c r="J8" s="262"/>
       <c r="K8" s="259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="259"/>
       <c r="M8" s="259"/>
@@ -15972,7 +15949,7 @@
       <c r="R8" s="262"/>
       <c r="S8" s="262"/>
       <c r="T8" s="264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8" s="264"/>
       <c r="V8" s="264"/>
@@ -15985,14 +15962,14 @@
       <c r="AC8" s="266"/>
       <c r="AD8" s="266"/>
       <c r="AE8" s="268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="268"/>
       <c r="AG8" s="270"/>
       <c r="AH8" s="270"/>
       <c r="AI8" s="271"/>
       <c r="AM8" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" s="34" customFormat="1">
@@ -16035,30 +16012,26 @@
     </row>
     <row r="10" ht="24.6" customHeight="1" s="34" customFormat="1">
       <c r="A10" s="274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="275"/>
       <c r="C10" s="275"/>
       <c r="D10" s="275"/>
       <c r="E10" s="275"/>
-      <c r="F10" s="277" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="277"/>
       <c r="G10" s="223"/>
       <c r="H10" s="223"/>
       <c r="I10" s="223"/>
       <c r="J10" s="223"/>
       <c r="K10" s="278"/>
       <c r="L10" s="280" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="280"/>
       <c r="N10" s="280"/>
       <c r="O10" s="280"/>
       <c r="P10" s="280"/>
-      <c r="Q10" s="281" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q10" s="281"/>
       <c r="R10" s="281"/>
       <c r="S10" s="281"/>
       <c r="T10" s="281"/>
@@ -16069,14 +16042,12 @@
       <c r="Y10" s="281"/>
       <c r="Z10" s="281"/>
       <c r="AA10" s="282" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB10" s="283"/>
       <c r="AC10" s="283"/>
       <c r="AD10" s="283"/>
-      <c r="AE10" s="253" t="s">
-        <v>16</v>
-      </c>
+      <c r="AE10" s="253"/>
       <c r="AF10" s="253"/>
       <c r="AG10" s="253"/>
       <c r="AH10" s="253"/>
@@ -16120,12 +16091,12 @@
       <c r="AH11" s="253"/>
       <c r="AI11" s="254"/>
       <c r="AM11" s="38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A12" s="207" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="208"/>
       <c r="C12" s="208"/>
@@ -16138,7 +16109,7 @@
       <c r="J12" s="116"/>
       <c r="K12" s="117"/>
       <c r="L12" s="213" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
@@ -16152,15 +16123,13 @@
       <c r="V12" s="116"/>
       <c r="W12" s="117"/>
       <c r="X12" s="216" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y12" s="217"/>
       <c r="Z12" s="217"/>
       <c r="AA12" s="217"/>
       <c r="AB12" s="218"/>
-      <c r="AC12" s="222" t="s">
-        <v>21</v>
-      </c>
+      <c r="AC12" s="222"/>
       <c r="AD12" s="223"/>
       <c r="AE12" s="223"/>
       <c r="AF12" s="223"/>
@@ -16168,7 +16137,7 @@
       <c r="AH12" s="223"/>
       <c r="AI12" s="224"/>
       <c r="AM12" s="38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" s="34" customFormat="1">
@@ -16208,12 +16177,12 @@
       <c r="AH13" s="226"/>
       <c r="AI13" s="227"/>
       <c r="AM13" s="38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A14" s="228" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="229"/>
       <c r="C14" s="229"/>
@@ -16223,7 +16192,7 @@
       <c r="G14" s="229"/>
       <c r="H14" s="229"/>
       <c r="I14" s="234" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J14" s="235"/>
       <c r="K14" s="235"/>
@@ -16238,7 +16207,7 @@
       <c r="T14" s="235"/>
       <c r="U14" s="236"/>
       <c r="V14" s="240" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W14" s="240"/>
       <c r="X14" s="240"/>
@@ -16402,7 +16371,7 @@
       <c r="AH18" s="202"/>
       <c r="AI18" s="203"/>
       <c r="AM18" s="39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AN18" s="39"/>
       <c r="AO18" s="39"/>
@@ -16447,7 +16416,7 @@
       <c r="AH19" s="205"/>
       <c r="AI19" s="206"/>
       <c r="AM19" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AN19" s="39"/>
       <c r="AO19" s="39"/>
@@ -16457,7 +16426,7 @@
     </row>
     <row r="20" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A20" s="171" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="172"/>
       <c r="C20" s="172"/>
@@ -16470,7 +16439,7 @@
       <c r="J20" s="175"/>
       <c r="K20" s="176"/>
       <c r="L20" s="179" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M20" s="172"/>
       <c r="N20" s="172"/>
@@ -16483,7 +16452,7 @@
       <c r="U20" s="175"/>
       <c r="V20" s="181"/>
       <c r="W20" s="183" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X20" s="175"/>
       <c r="Y20" s="175"/>
@@ -16498,7 +16467,7 @@
       <c r="AH20" s="185"/>
       <c r="AI20" s="186"/>
       <c r="AM20" s="39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AN20" s="39"/>
       <c r="AO20" s="39"/>
@@ -16543,7 +16512,7 @@
       <c r="AH21" s="187"/>
       <c r="AI21" s="188"/>
       <c r="AM21" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AN21" s="39"/>
       <c r="AO21" s="39"/>
@@ -16553,27 +16522,27 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" s="34" customFormat="1">
       <c r="A22" s="189" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="161"/>
       <c r="C22" s="161"/>
       <c r="D22" s="190"/>
       <c r="E22" s="40"/>
       <c r="F22" s="197" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G22" s="161"/>
       <c r="H22" s="161"/>
       <c r="I22" s="161"/>
       <c r="J22" s="161"/>
       <c r="K22" s="197" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L22" s="161"/>
       <c r="M22" s="161"/>
       <c r="N22" s="161"/>
       <c r="O22" s="197" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P22" s="161"/>
       <c r="Q22" s="161"/>
@@ -16581,7 +16550,7 @@
       <c r="S22" s="161"/>
       <c r="T22" s="190"/>
       <c r="U22" s="197" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V22" s="161"/>
       <c r="W22" s="161"/>
@@ -16589,7 +16558,7 @@
       <c r="Y22" s="161"/>
       <c r="Z22" s="190"/>
       <c r="AA22" s="161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="161"/>
       <c r="AC22" s="161"/>
@@ -16600,7 +16569,7 @@
       <c r="AH22" s="161"/>
       <c r="AI22" s="162"/>
       <c r="AM22" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AN22" s="39"/>
       <c r="AO22" s="39"/>
@@ -16765,7 +16734,7 @@
     <row r="27" ht="15.75" customHeight="1" s="34" customFormat="1">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -16783,10 +16752,10 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S27" s="59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
@@ -16809,11 +16778,9 @@
     </row>
     <row r="28" ht="26.45" customHeight="1" s="34" customFormat="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="61" t="s">
-        <v>41</v>
-      </c>
+      <c r="B28" s="61"/>
       <c r="C28" s="147" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" s="147"/>
       <c r="E28" s="147"/>
@@ -16826,17 +16793,15 @@
       <c r="L28" s="147"/>
       <c r="M28" s="62"/>
       <c r="N28" s="150" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O28" s="151"/>
       <c r="P28" s="151"/>
       <c r="Q28" s="152"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="61" t="s">
-        <v>41</v>
-      </c>
+      <c r="S28" s="61"/>
       <c r="T28" s="147" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U28" s="147"/>
       <c r="V28" s="147"/>
@@ -16849,7 +16814,7 @@
       <c r="AC28" s="62"/>
       <c r="AD28" s="62"/>
       <c r="AE28" s="154" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF28" s="155"/>
       <c r="AG28" s="155"/>
@@ -16916,9 +16881,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
-      <c r="W30" s="59" t="s">
-        <v>46</v>
-      </c>
+      <c r="W30" s="59"/>
       <c r="X30" s="59"/>
       <c r="Y30" s="59"/>
       <c r="Z30" s="59"/>
@@ -17046,7 +17009,7 @@
     <row r="34" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A34" s="58"/>
       <c r="B34" s="58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -17064,10 +17027,10 @@
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="59" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S34" s="59" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="T34" s="59"/>
       <c r="U34" s="59"/>
@@ -17088,11 +17051,9 @@
     </row>
     <row r="35" ht="23.25" customHeight="1" s="34" customFormat="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="61" t="s">
-        <v>41</v>
-      </c>
+      <c r="B35" s="61"/>
       <c r="C35" s="147" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D35" s="148"/>
       <c r="E35" s="148"/>
@@ -17105,7 +17066,7 @@
       <c r="L35" s="148"/>
       <c r="M35" s="149"/>
       <c r="N35" s="150" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O35" s="151"/>
       <c r="P35" s="151"/>
@@ -17113,7 +17074,7 @@
       <c r="R35" s="59"/>
       <c r="S35" s="61"/>
       <c r="T35" s="153" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U35" s="153"/>
       <c r="V35" s="153"/>
@@ -17126,7 +17087,7 @@
       <c r="AC35" s="62"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="154" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF35" s="155"/>
       <c r="AG35" s="155"/>
@@ -17320,7 +17281,7 @@
     </row>
     <row r="41" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A41" s="58" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -17340,7 +17301,7 @@
       <c r="Q41" s="59"/>
       <c r="R41" s="59"/>
       <c r="S41" s="67" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="T41" s="67"/>
       <c r="U41" s="67"/>
@@ -17362,7 +17323,7 @@
     <row r="42" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A42" s="58"/>
       <c r="B42" s="68" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -17381,7 +17342,7 @@
       <c r="Q42" s="69"/>
       <c r="R42" s="62"/>
       <c r="S42" s="70" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="62"/>
@@ -17404,7 +17365,7 @@
       <c r="A43" s="58"/>
       <c r="B43" s="71"/>
       <c r="C43" s="72" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
@@ -17412,7 +17373,7 @@
       <c r="G43" s="59"/>
       <c r="H43" s="73"/>
       <c r="I43" s="72" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
@@ -17424,17 +17385,17 @@
       <c r="Q43" s="109"/>
       <c r="R43" s="59"/>
       <c r="S43" s="74" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T43" s="59" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="U43" s="59"/>
       <c r="V43" s="59" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="W43" s="59" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="X43" s="59"/>
       <c r="Y43" s="59"/>
@@ -17453,7 +17414,7 @@
       <c r="A44" s="96"/>
       <c r="B44" s="97"/>
       <c r="C44" s="72" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
@@ -17466,14 +17427,14 @@
       <c r="L44" s="59"/>
       <c r="M44" s="59"/>
       <c r="N44" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O44" s="144"/>
       <c r="P44" s="144"/>
       <c r="Q44" s="145"/>
       <c r="R44" s="59"/>
       <c r="S44" s="74" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T44" s="59"/>
       <c r="U44" s="59"/>
@@ -17487,7 +17448,7 @@
       <c r="AC44" s="59"/>
       <c r="AD44" s="59"/>
       <c r="AE44" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF44" s="144"/>
       <c r="AG44" s="144"/>
@@ -17515,7 +17476,7 @@
       <c r="Q45" s="114"/>
       <c r="R45" s="59"/>
       <c r="S45" s="74" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="T45" s="59"/>
       <c r="U45" s="59"/>
@@ -17687,7 +17648,7 @@
     </row>
     <row r="50" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A50" s="98" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B50" s="59"/>
       <c r="C50" s="99"/>
@@ -17707,7 +17668,7 @@
       <c r="Q50" s="99"/>
       <c r="R50" s="99"/>
       <c r="S50" s="159" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T50" s="159"/>
       <c r="U50" s="159"/>
@@ -17731,7 +17692,7 @@
     <row r="51" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A51" s="58"/>
       <c r="B51" s="68" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -17750,7 +17711,7 @@
       <c r="Q51" s="69"/>
       <c r="R51" s="62"/>
       <c r="S51" s="74" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
@@ -17773,7 +17734,7 @@
       <c r="A52" s="58"/>
       <c r="B52" s="71"/>
       <c r="C52" s="80" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
@@ -17781,7 +17742,7 @@
       <c r="G52" s="59"/>
       <c r="H52" s="73"/>
       <c r="I52" s="80" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
@@ -17793,13 +17754,13 @@
       <c r="Q52" s="109"/>
       <c r="R52" s="59"/>
       <c r="S52" s="81" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T52" s="75"/>
       <c r="U52" s="75"/>
       <c r="V52" s="82"/>
       <c r="W52" s="83" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="X52" s="75"/>
       <c r="Y52" s="75"/>
@@ -17827,7 +17788,7 @@
     <row r="53" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A53" s="58"/>
       <c r="B53" s="64" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -17841,20 +17802,20 @@
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
       <c r="N53" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O53" s="144"/>
       <c r="P53" s="144"/>
       <c r="Q53" s="145"/>
       <c r="R53" s="59"/>
       <c r="S53" s="81" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="T53" s="75"/>
       <c r="U53" s="75"/>
       <c r="V53" s="82"/>
       <c r="W53" s="81" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="X53" s="75"/>
       <c r="Y53" s="85"/>
@@ -17864,7 +17825,7 @@
       <c r="AC53" s="75"/>
       <c r="AD53" s="75"/>
       <c r="AE53" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF53" s="144"/>
       <c r="AG53" s="144"/>
@@ -17884,7 +17845,7 @@
     <row r="54" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A54" s="58"/>
       <c r="B54" s="64" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
@@ -17903,13 +17864,13 @@
       <c r="Q54" s="114"/>
       <c r="R54" s="59"/>
       <c r="S54" s="86" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T54" s="87"/>
       <c r="U54" s="87"/>
       <c r="V54" s="88"/>
       <c r="W54" s="86" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="X54" s="87"/>
       <c r="Y54" s="89"/>
@@ -17938,7 +17899,7 @@
     <row r="55" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A55" s="58"/>
       <c r="B55" s="64" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
@@ -17957,13 +17918,13 @@
       <c r="Q55" s="114"/>
       <c r="R55" s="59"/>
       <c r="S55" s="86" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T55" s="87"/>
       <c r="U55" s="87"/>
       <c r="V55" s="88"/>
       <c r="W55" s="86" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X55" s="87"/>
       <c r="Y55" s="90"/>
@@ -17991,7 +17952,7 @@
     <row r="56" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A56" s="58"/>
       <c r="B56" s="64" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
@@ -18010,13 +17971,13 @@
       <c r="Q56" s="114"/>
       <c r="R56" s="59"/>
       <c r="S56" s="91" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="T56" s="87"/>
       <c r="U56" s="87"/>
       <c r="V56" s="88"/>
       <c r="W56" s="91" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X56" s="87"/>
       <c r="Y56" s="87"/>
@@ -18184,7 +18145,7 @@
     </row>
     <row r="60" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A60" s="124" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B60" s="125"/>
       <c r="C60" s="125"/>
@@ -18216,7 +18177,7 @@
       <c r="AC60" s="125"/>
       <c r="AD60" s="126"/>
       <c r="AE60" s="130" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AF60" s="131"/>
       <c r="AG60" s="131"/>
@@ -18470,7 +18431,7 @@
     </row>
     <row r="66" ht="23.45" customHeight="1" s="34" customFormat="1">
       <c r="A66" s="110" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B66" s="110"/>
       <c r="C66" s="110"/>
@@ -18614,7 +18575,7 @@
     </row>
     <row r="72" ht="409.5">
       <c r="S72" s="101" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
